--- a/DateBase/orders/Nha Thu_2025-11-25.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-25.xlsx
@@ -526,6 +526,9 @@
       <c r="C11" t="str">
         <v>798_朱玉大菊_undefined_undefined_5stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -587,7 +590,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02165815112021100</v>
+        <v>02165815112021105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-25.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,9 +530,89 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>667_大丽花 安吉丽娜_undefined_undefined_5stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>4</v>
+      </c>
+      <c r="C14" t="str">
+        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>780_贝壳草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>550_蕾丝红色_lace flower brown_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>755_豌豆花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>828_豌豆花浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>827_豌豆花白_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -590,7 +670,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02165815112021105</v>
+        <v>0216581511202110555551010201080</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-25.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-25.xlsx
@@ -609,6 +609,9 @@
       <c r="C21" t="str">
         <v>827_豌豆花白_undefined_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -670,7 +673,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0216581511202110555551010201080</v>
+        <v>0216581511202110555551010201086</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-25.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -613,9 +613,18 @@
         <v>6</v>
       </c>
     </row>
+    <row r="22" xml:space="preserve">
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L22"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -673,7 +682,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0216581511202110555551010201086</v>
+        <v>02165815112021105555510102010865</v>
       </c>
     </row>
   </sheetData>
